--- a/Files/NOPAT.xlsx
+++ b/Files/NOPAT.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburkhow\Google Drive\Documents\GitHub\rule_one\Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57ACB913-1C3D-401D-BF1F-C4FA0C09025D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="NOPAT" sheetId="1" r:id="rId1"/>
+    <sheet name="NOPAT" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Home Depot Inc., NOPAT calculation</t>
   </si>
@@ -77,6 +72,9 @@
   </si>
   <si>
     <t>Net operating profit after taxes (NOPAT)</t>
+  </si>
+  <si>
+    <t>Source: Based on data from Home Depot Inc. Annual Reports</t>
   </si>
   <si>
     <t>Source: https://www.stock-analysis-on.net</t>
@@ -88,47 +86,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm d, yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF606631"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF316066"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,79 +151,68 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" fontId="3" numFmtId="3" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -498,53 +502,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
-    <col min="2" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.518518518519" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.185185185185" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.185185185185" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.185185185185" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.185185185185" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.185185185185" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.185185185185" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>43128.333333333001</v>
+        <v>43128.333333333</v>
       </c>
       <c r="C4" s="3">
-        <v>42764.333333333001</v>
+        <v>42764.333333333</v>
       </c>
       <c r="D4" s="3">
-        <v>42400.333333333001</v>
+        <v>42400.333333333</v>
       </c>
       <c r="E4" s="3">
-        <v>42036.333333333001</v>
+        <v>42036.333333333</v>
       </c>
       <c r="F4" s="3">
-        <v>41672.333333333001</v>
+        <v>41672.333333333</v>
       </c>
       <c r="G4" s="3">
-        <v>41308.333333333001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41308.333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -567,7 +579,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -590,7 +602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -613,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -636,7 +648,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -659,7 +671,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -682,7 +694,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -705,7 +717,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -728,7 +740,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -751,7 +763,7 @@
         <v>-447</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -774,7 +786,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -797,7 +809,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -820,7 +832,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -843,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -866,7 +878,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -889,45 +901,39 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10">
-        <f>SUM(B5,B6,B8,B7,B10,B11,B13,B15,B17)</f>
-        <v>9853</v>
-      </c>
-      <c r="C20" s="10">
-        <f>SUM(C5,C6,C8,C7,C10,C11,C13,C15,C17)</f>
-        <v>8887</v>
-      </c>
-      <c r="D20" s="10">
-        <f>SUM(D5,D6,D8,D7,D10,D11,D13,D15,D17)</f>
-        <v>7961</v>
-      </c>
-      <c r="E20" s="10">
-        <f>SUM(E5,E6,E8,E7,E10,E11,E13,E15,E17)</f>
-        <v>7266</v>
-      </c>
-      <c r="F20" s="10">
-        <f>SUM(F5,F6,F8,F7,F10,F11,F13,F15,F17)</f>
-        <v>6278</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(G5,G6,G8,G7,G10,G11,G13,G15,G17)</f>
-        <v>5570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>